--- a/medicine/Psychotrope/Caffè_Quadri/Caffè_Quadri.xlsx
+++ b/medicine/Psychotrope/Caffè_Quadri/Caffè_Quadri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Quadri</t>
+          <t>Caffè_Quadri</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le caffè Quadri ou Gran Caffè Quadri est un café-restaurant historique situé sous les arcades des Procuratie Vecchie (it) de la place Saint-Marc à Venise.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Quadri</t>
+          <t>Caffè_Quadri</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de l'un des plus anciens établissements publics italiens. Son activité débute en 1775 lorsque le marchand vénitien Giorgio Quadri, de retour d'un long séjour  à Corfou, alors territoire de la Sérénissime, décide  avec son épouse grecque Naxina d'ouvrir un local destiné à la consommation de café.
 En Europe, dès la fin du XVIe siècle, les Vénitiens sont les premiers à connaître le goût du café, alors vendu très cher et uniquement en pharmacie. La première bottega del caffè (boutique du café) est ouverte en 1683, par quelques commerçants turques, sous les arcades de la Procuratie Nuove (it). En 1775, la seule piazza San Marco dénombre une bonne vingtaine de commerces destinés à la vente de café sur un total d'un peu plus de 200.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Quadri</t>
+          <t>Caffè_Quadri</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Clients célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant leur séjour à Venise, le caffè Quadri accueillit Stendhal, George Byron, Alexandre Dumas père, Richard Wagner, Marcel Proust et, à l'époque contemporaine, Mikhaïl Gorbatchev, François Mitterrand et Woody Allen.
 </t>
